--- a/Code/Results/Cases/Case_2_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_217/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.474726798617667</v>
+        <v>1.31267000400635</v>
       </c>
       <c r="C2">
-        <v>0.5048658024723238</v>
+        <v>0.3461160285025073</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03750785727026162</v>
+        <v>0.1097307580660658</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1219436237340261</v>
+        <v>0.2883040419709957</v>
       </c>
       <c r="H2">
-        <v>0.1458270391920777</v>
+        <v>0.4758576272819894</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3266926018820158</v>
+        <v>0.2100670150863522</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5140438009195805</v>
+        <v>1.453752698736565</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.024468465800396</v>
+        <v>1.167875531889081</v>
       </c>
       <c r="C3">
-        <v>0.4646843135961944</v>
+        <v>0.3332947800523414</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03871218131924969</v>
+        <v>0.1114209922514373</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1224597498957252</v>
+        <v>0.2947535778493346</v>
       </c>
       <c r="H3">
-        <v>0.1532561723510355</v>
+        <v>0.483456961853598</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2863836581708057</v>
+        <v>0.1992484599809217</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5302942114610545</v>
+        <v>1.483065920702316</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.748095746639478</v>
+        <v>1.078733597952464</v>
       </c>
       <c r="C4">
-        <v>0.4401794823603211</v>
+        <v>0.325481867613945</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03959448351734629</v>
+        <v>0.1125408572756683</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.123743372910468</v>
+        <v>0.2991058866762124</v>
       </c>
       <c r="H4">
-        <v>0.1584213080359618</v>
+        <v>0.488454943375686</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2618334692513287</v>
+        <v>0.1926865281558037</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5435760056889052</v>
+        <v>1.502581903982275</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.635461150704145</v>
+        <v>1.042350318477077</v>
       </c>
       <c r="C5">
-        <v>0.430232405863137</v>
+        <v>0.3223133461048917</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03998862613940801</v>
+        <v>0.1130178338913783</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1244954860209582</v>
+        <v>0.3009777669265716</v>
       </c>
       <c r="H5">
-        <v>0.1606716616242672</v>
+        <v>0.4905750567884546</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.25187365692247</v>
+        <v>0.1900329119019943</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5497763081336871</v>
+        <v>1.510915492073046</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.61675672292148</v>
+        <v>1.036305521290103</v>
       </c>
       <c r="C6">
-        <v>0.4285829615309638</v>
+        <v>0.3217881508127221</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04005612522863267</v>
+        <v>0.1130982807282876</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1246338076435123</v>
+        <v>0.3012945164516658</v>
       </c>
       <c r="H6">
-        <v>0.1610539424242106</v>
+        <v>0.4909321345728017</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2502223724329014</v>
+        <v>0.1895935183806046</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5508522307065391</v>
+        <v>1.512322241920039</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74657680080719</v>
+        <v>1.078243148643935</v>
       </c>
       <c r="C7">
-        <v>0.4400451792537297</v>
+        <v>0.3254390733669936</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03959966068465803</v>
+        <v>0.1125472064634394</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.12375260695989</v>
+        <v>0.2991307340576626</v>
       </c>
       <c r="H7">
-        <v>0.1584510759567053</v>
+        <v>0.4884831984069962</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2616989743995504</v>
+        <v>0.1926506576877642</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5436564904027819</v>
+        <v>1.502692753602432</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.3194390955112</v>
+        <v>1.262795629570974</v>
       </c>
       <c r="C8">
-        <v>0.4909746633827581</v>
+        <v>0.3416831531455671</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0378926484720683</v>
+        <v>0.1102965141189713</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1219122716164307</v>
+        <v>0.2904462113639852</v>
       </c>
       <c r="H8">
-        <v>0.1482594616458499</v>
+        <v>0.4784089332180059</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3127491466613037</v>
+        <v>0.2063201012503981</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5189347270783031</v>
+        <v>1.463544373522694</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.445154833933429</v>
+        <v>1.622725288564595</v>
       </c>
       <c r="C9">
-        <v>0.5923275216567845</v>
+        <v>0.3739945409050165</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03574096937199123</v>
+        <v>0.1065344363646581</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1266414971955001</v>
+        <v>0.2765443622809158</v>
       </c>
       <c r="H9">
-        <v>0.1333602211394691</v>
+        <v>0.4612906122041593</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4147167400538621</v>
+        <v>0.2337620226353181</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.498709067959382</v>
+        <v>1.398856741716443</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.276178762297604</v>
+        <v>1.885862654205766</v>
       </c>
       <c r="C10">
-        <v>0.6679385685278021</v>
+        <v>0.3979955941499043</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03498022362811604</v>
+        <v>0.1041682225330671</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1361807848124315</v>
+        <v>0.2682596985447532</v>
       </c>
       <c r="H10">
-        <v>0.1259508378643943</v>
+        <v>0.4503258568457653</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.49117822992892</v>
+        <v>0.2543081269858192</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5040688979769499</v>
+        <v>1.358752058093231</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.655712357042489</v>
+        <v>2.005269001371573</v>
       </c>
       <c r="C11">
-        <v>0.7026450804725357</v>
+        <v>0.408967877153799</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03483369497871891</v>
+        <v>0.103178272590922</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1420706292398179</v>
+        <v>0.264914306388718</v>
       </c>
       <c r="H11">
-        <v>0.1234518849340986</v>
+        <v>0.4456886690764605</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5263974144631476</v>
+        <v>0.263738029756297</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5116097017984771</v>
+        <v>1.342130716118191</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.799701588501762</v>
+        <v>2.050440376720587</v>
       </c>
       <c r="C12">
-        <v>0.7158375031870037</v>
+        <v>0.4131302494783711</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03480882209129987</v>
+        <v>0.1028158480586114</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.144544885246404</v>
+        <v>0.2637087512102667</v>
       </c>
       <c r="H12">
-        <v>0.1226402893280607</v>
+        <v>0.4439832073610717</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5398055578086343</v>
+        <v>0.2673207821267454</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5152630498198363</v>
+        <v>1.336070950738801</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.768678118685727</v>
+        <v>2.040713965452596</v>
       </c>
       <c r="C13">
-        <v>0.7129939766573727</v>
+        <v>0.4122334845456805</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03481278537925547</v>
+        <v>0.1028933487802046</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.144000812574923</v>
+        <v>0.263965657705711</v>
       </c>
       <c r="H13">
-        <v>0.1228089335862137</v>
+        <v>0.4443482595714272</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5369145540046816</v>
+        <v>0.2665486473097474</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5144396836636815</v>
+        <v>1.337365588786511</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.667552746257911</v>
+        <v>2.008986198792854</v>
       </c>
       <c r="C14">
-        <v>0.7037293995707898</v>
+        <v>0.4093101716894125</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03483102365764879</v>
+        <v>0.1031482061369893</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1422691742454276</v>
+        <v>0.2648138943912457</v>
       </c>
       <c r="H14">
-        <v>0.1233823587528207</v>
+        <v>0.445547346201856</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.527499027654784</v>
+        <v>0.2640325481815182</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5118938922803409</v>
+        <v>1.341627472242948</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.605647093561117</v>
+        <v>1.989546059411907</v>
       </c>
       <c r="C15">
-        <v>0.698061226595172</v>
+        <v>0.4075205118413123</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03484624119799484</v>
+        <v>0.1033059352068051</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1412409063381403</v>
+        <v>0.2653414550234103</v>
       </c>
       <c r="H15">
-        <v>0.1237514301117528</v>
+        <v>0.4462884063953254</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5217413121530967</v>
+        <v>0.2624929043619346</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5104403996022597</v>
+        <v>1.344268553138534</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.251409887755869</v>
+        <v>1.878052983760426</v>
       </c>
       <c r="C16">
-        <v>0.6656770981101658</v>
+        <v>0.3972795861907059</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03499397620019096</v>
+        <v>0.104234659130011</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1358288249609814</v>
+        <v>0.2684868804338478</v>
       </c>
       <c r="H16">
-        <v>0.1261324749685357</v>
+        <v>0.4506359746689697</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4888860800378723</v>
+        <v>0.2536935267214631</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5036841390336235</v>
+        <v>1.359871041522268</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.034516437815341</v>
+        <v>1.809577860557852</v>
       </c>
       <c r="C17">
-        <v>0.6458935834304214</v>
+        <v>0.3910106971393077</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03513704110944005</v>
+        <v>0.1048265553746894</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1329202264594684</v>
+        <v>0.2705252077755702</v>
       </c>
       <c r="H17">
-        <v>0.1278228671784376</v>
+        <v>0.4533929736443554</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4688481945212004</v>
+        <v>0.2483166509104819</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5008904563574248</v>
+        <v>1.369858978547271</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.90990251515592</v>
+        <v>1.770165060356362</v>
       </c>
       <c r="C18">
-        <v>0.6345435376681223</v>
+        <v>0.387410110389709</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03523798757082552</v>
+        <v>0.1051751348073591</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1313918665432681</v>
+        <v>0.2717374232494478</v>
       </c>
       <c r="H18">
-        <v>0.128876577530157</v>
+        <v>0.4550117330351995</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4573634607787795</v>
+        <v>0.2452318701056555</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.499759788833785</v>
+        <v>1.37575642785886</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.86773244845665</v>
+        <v>1.756815882931335</v>
       </c>
       <c r="C19">
-        <v>0.6307054222979502</v>
+        <v>0.3861919030056526</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03527531455759636</v>
+        <v>0.1052945547449742</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1308986088031929</v>
+        <v>0.2721546862038764</v>
       </c>
       <c r="H19">
-        <v>0.1292470587395371</v>
+        <v>0.4555654828311617</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4534816352268081</v>
+        <v>0.2441887697705596</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4994568707356137</v>
+        <v>1.377779388463182</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.057590520609779</v>
+        <v>1.816870042405355</v>
       </c>
       <c r="C20">
-        <v>0.6479965444679578</v>
+        <v>0.391677504662141</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03511986692209312</v>
+        <v>0.1047627048073352</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1332147402232948</v>
+        <v>0.2703040998918809</v>
       </c>
       <c r="H20">
-        <v>0.1276344274255266</v>
+        <v>0.4530960695821307</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4709770066224195</v>
+        <v>0.2488882164510358</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5011381156957668</v>
+        <v>1.368779938943234</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.697248000246759</v>
+        <v>2.018306660957478</v>
       </c>
       <c r="C21">
-        <v>0.7064492352128582</v>
+        <v>0.4101686214441429</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03482481982719321</v>
+        <v>0.103073010389032</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.142771004522146</v>
+        <v>0.2645630806586325</v>
       </c>
       <c r="H21">
-        <v>0.1232101960557301</v>
+        <v>0.4451937728944486</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5302625860307444</v>
+        <v>0.2647712668891558</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5126194671502162</v>
+        <v>1.340369284396928</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.116891542699705</v>
+        <v>2.149692374691369</v>
       </c>
       <c r="C22">
-        <v>0.7449445339206591</v>
+        <v>0.4222966396738457</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0348114182301984</v>
+        <v>0.1020412614511397</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1504490434894237</v>
+        <v>0.2611683164326735</v>
       </c>
       <c r="H22">
-        <v>0.1211087050006157</v>
+        <v>0.4403238034972361</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5694298174703221</v>
+        <v>0.2752207830668993</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5248065566885174</v>
+        <v>1.323167893303079</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.892755737645871</v>
+        <v>2.079594434594526</v>
       </c>
       <c r="C23">
-        <v>0.7243702385773361</v>
+        <v>0.4158198743010928</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03480148472166533</v>
+        <v>0.1025852803375198</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1462127345453794</v>
+        <v>0.2629473405389788</v>
       </c>
       <c r="H23">
-        <v>0.122154751079286</v>
+        <v>0.4428960036351199</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5484840089571037</v>
+        <v>0.2696374088361182</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5178511598778357</v>
+        <v>1.33222320349438</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.047158479392181</v>
+        <v>1.813573388645409</v>
       </c>
       <c r="C24">
-        <v>0.6470457221585093</v>
+        <v>0.3913760301095692</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03512757328042326</v>
+        <v>0.1047915458263784</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1330811441127793</v>
+        <v>0.2704039370964892</v>
       </c>
       <c r="H24">
-        <v>0.1277193666960414</v>
+        <v>0.4532301948680555</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4700144613229185</v>
+        <v>0.2486297915496323</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5010246727537435</v>
+        <v>1.369267289230834</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.140118969169691</v>
+        <v>1.525576640175245</v>
       </c>
       <c r="C25">
-        <v>0.5647263638169306</v>
+        <v>0.365206285594752</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03618595489162502</v>
+        <v>0.1074823655706556</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1243718997125782</v>
+        <v>0.2799679931007475</v>
       </c>
       <c r="H25">
-        <v>0.1368029716480805</v>
+        <v>0.4656387851305581</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.386891928202445</v>
+        <v>0.2262704932107624</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5008581949040831</v>
+        <v>1.415057202656271</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_217/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.31267000400635</v>
+        <v>3.474726798617723</v>
       </c>
       <c r="C2">
-        <v>0.3461160285025073</v>
+        <v>0.5048658024723238</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1097307580660658</v>
+        <v>0.03750785727026162</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2883040419709957</v>
+        <v>0.121943623734019</v>
       </c>
       <c r="H2">
-        <v>0.4758576272819894</v>
+        <v>0.1458270391919569</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2100670150863522</v>
+        <v>0.326692601881831</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.453752698736565</v>
+        <v>0.5140438009196373</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.167875531889081</v>
+        <v>3.024468465800453</v>
       </c>
       <c r="C3">
-        <v>0.3332947800523414</v>
+        <v>0.4646843135959955</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1114209922514373</v>
+        <v>0.03871218131925325</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.2947535778493346</v>
+        <v>0.1224597498956754</v>
       </c>
       <c r="H3">
-        <v>0.483456961853598</v>
+        <v>0.1532561723510426</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1992484599809217</v>
+        <v>0.2863836581708483</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.483065920702316</v>
+        <v>0.5302942114611255</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.078733597952464</v>
+        <v>2.748095746639649</v>
       </c>
       <c r="C4">
-        <v>0.325481867613945</v>
+        <v>0.4401794823601222</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1125408572756683</v>
+        <v>0.03959448351731609</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2991058866762124</v>
+        <v>0.1237433729104609</v>
       </c>
       <c r="H4">
-        <v>0.488454943375686</v>
+        <v>0.1584213080359618</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1926865281558037</v>
+        <v>0.2618334692512292</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.502581903982275</v>
+        <v>0.5435760056889052</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.042350318477077</v>
+        <v>2.635461150703918</v>
       </c>
       <c r="C5">
-        <v>0.3223133461048917</v>
+        <v>0.4302324058631939</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1130178338913783</v>
+        <v>0.03998862613937604</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3009777669265716</v>
+        <v>0.124495486020912</v>
       </c>
       <c r="H5">
-        <v>0.4905750567884546</v>
+        <v>0.1606716616242672</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1900329119019943</v>
+        <v>0.2518736569225126</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.510915492073046</v>
+        <v>0.5497763081337013</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.036305521290103</v>
+        <v>2.616756722921309</v>
       </c>
       <c r="C6">
-        <v>0.3217881508127221</v>
+        <v>0.4285829615309638</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1130982807282876</v>
+        <v>0.04005612522866642</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3012945164516658</v>
+        <v>0.1246338076434483</v>
       </c>
       <c r="H6">
-        <v>0.4909321345728017</v>
+        <v>0.1610539424242141</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1895935183806046</v>
+        <v>0.250222372432745</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.512322241920039</v>
+        <v>0.5508522307065249</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.078243148643935</v>
+        <v>2.74657680080719</v>
       </c>
       <c r="C7">
-        <v>0.3254390733669936</v>
+        <v>0.4400451792535023</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1125472064634394</v>
+        <v>0.03959966068462961</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2991307340576626</v>
+        <v>0.1237526069597905</v>
       </c>
       <c r="H7">
-        <v>0.4884831984069962</v>
+        <v>0.1584510759568118</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1926506576877642</v>
+        <v>0.2616989743995788</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.502692753602432</v>
+        <v>0.5436564904027819</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.262795629570974</v>
+        <v>3.319439095511257</v>
       </c>
       <c r="C8">
-        <v>0.3416831531455671</v>
+        <v>0.4909746633827865</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1102965141189713</v>
+        <v>0.03789264847204343</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.2904462113639852</v>
+        <v>0.1219122716164094</v>
       </c>
       <c r="H8">
-        <v>0.4784089332180059</v>
+        <v>0.1482594616458641</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2063201012503981</v>
+        <v>0.3127491466611048</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.463544373522694</v>
+        <v>0.5189347270783458</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.622725288564595</v>
+        <v>4.445154833933429</v>
       </c>
       <c r="C9">
-        <v>0.3739945409050165</v>
+        <v>0.5923275216567845</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1065344363646581</v>
+        <v>0.03574096937200544</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.2765443622809158</v>
+        <v>0.1266414971955001</v>
       </c>
       <c r="H9">
-        <v>0.4612906122041593</v>
+        <v>0.1333602211394691</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2337620226353181</v>
+        <v>0.4147167400538194</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.398856741716443</v>
+        <v>0.4987090679593251</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.885862654205766</v>
+        <v>5.276178762297604</v>
       </c>
       <c r="C10">
-        <v>0.3979955941499043</v>
+        <v>0.6679385685277168</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1041682225330671</v>
+        <v>0.03498022362810893</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.2682596985447532</v>
+        <v>0.1361807848124243</v>
       </c>
       <c r="H10">
-        <v>0.4503258568457653</v>
+        <v>0.1259508378642877</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2543081269858192</v>
+        <v>0.4911782299287921</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.358752058093231</v>
+        <v>0.5040688979769357</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.005269001371573</v>
+        <v>5.655712357042376</v>
       </c>
       <c r="C11">
-        <v>0.408967877153799</v>
+        <v>0.7026450804724789</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.103178272590922</v>
+        <v>0.03483369497872424</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.264914306388718</v>
+        <v>0.1420706292398108</v>
       </c>
       <c r="H11">
-        <v>0.4456886690764605</v>
+        <v>0.1234518849342194</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.263738029756297</v>
+        <v>0.5263974144630907</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.342130716118191</v>
+        <v>0.5116097017984913</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.050440376720587</v>
+        <v>5.799701588501478</v>
       </c>
       <c r="C12">
-        <v>0.4131302494783711</v>
+        <v>0.7158375031870321</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1028158480586114</v>
+        <v>0.03480882209128566</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.2637087512102667</v>
+        <v>0.1445448852463542</v>
       </c>
       <c r="H12">
-        <v>0.4439832073610717</v>
+        <v>0.1226402893280607</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2673207821267454</v>
+        <v>0.5398055578085206</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.336070950738801</v>
+        <v>0.5152630498198221</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.040713965452596</v>
+        <v>5.768678118685557</v>
       </c>
       <c r="C13">
-        <v>0.4122334845456805</v>
+        <v>0.7129939766574012</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1028933487802046</v>
+        <v>0.03481278537923416</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.263965657705711</v>
+        <v>0.144000812574923</v>
       </c>
       <c r="H13">
-        <v>0.4443482595714272</v>
+        <v>0.1228089335862066</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2665486473097474</v>
+        <v>0.5369145540046816</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.337365588786511</v>
+        <v>0.5144396836635536</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.008986198792854</v>
+        <v>5.667552746258025</v>
       </c>
       <c r="C14">
-        <v>0.4093101716894125</v>
+        <v>0.7037293995707898</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1031482061369893</v>
+        <v>0.03483102365766477</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.2648138943912457</v>
+        <v>0.1422691742454347</v>
       </c>
       <c r="H14">
-        <v>0.445547346201856</v>
+        <v>0.123382358752707</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2640325481815182</v>
+        <v>0.5274990276548408</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.341627472242948</v>
+        <v>0.5118938922803267</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.989546059411907</v>
+        <v>5.605647093561061</v>
       </c>
       <c r="C15">
-        <v>0.4075205118413123</v>
+        <v>0.6980612265952573</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1033059352068051</v>
+        <v>0.03484624119799662</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.2653414550234103</v>
+        <v>0.1412409063380906</v>
       </c>
       <c r="H15">
-        <v>0.4462884063953254</v>
+        <v>0.1237514301117599</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2624929043619346</v>
+        <v>0.5217413121531109</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.344268553138534</v>
+        <v>0.5104403996022455</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.878052983760426</v>
+        <v>5.251409887755699</v>
       </c>
       <c r="C16">
-        <v>0.3972795861907059</v>
+        <v>0.6656770981106774</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.104234659130011</v>
+        <v>0.03499397620019273</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.2684868804338478</v>
+        <v>0.1358288249609743</v>
       </c>
       <c r="H16">
-        <v>0.4506359746689697</v>
+        <v>0.1261324749686423</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2536935267214631</v>
+        <v>0.4888860800378723</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.359871041522268</v>
+        <v>0.5036841390336093</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.809577860557852</v>
+        <v>5.034516437815341</v>
       </c>
       <c r="C17">
-        <v>0.3910106971393077</v>
+        <v>0.6458935834306772</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1048265553746894</v>
+        <v>0.03513704110944005</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.2705252077755702</v>
+        <v>0.1329202264594684</v>
       </c>
       <c r="H17">
-        <v>0.4533929736443554</v>
+        <v>0.1278228671783239</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2483166509104819</v>
+        <v>0.4688481945211294</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.369858978547271</v>
+        <v>0.5008904563574248</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.770165060356362</v>
+        <v>4.909902515155807</v>
       </c>
       <c r="C18">
-        <v>0.387410110389709</v>
+        <v>0.6345435376681223</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1051751348073591</v>
+        <v>0.03523798757079888</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2717374232494478</v>
+        <v>0.1313918665432112</v>
       </c>
       <c r="H18">
-        <v>0.4550117330351995</v>
+        <v>0.128876577530157</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2452318701056555</v>
+        <v>0.4573634607787227</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.37575642785886</v>
+        <v>0.4997597888338419</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.756815882931335</v>
+        <v>4.867732448456991</v>
       </c>
       <c r="C19">
-        <v>0.3861919030056526</v>
+        <v>0.630705422298206</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1052945547449742</v>
+        <v>0.03527531455758925</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.2721546862038764</v>
+        <v>0.1308986088031432</v>
       </c>
       <c r="H19">
-        <v>0.4555654828311617</v>
+        <v>0.1292470587395442</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2441887697705596</v>
+        <v>0.4534816352268223</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.377779388463182</v>
+        <v>0.4994568707356137</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.816870042405355</v>
+        <v>5.057590520609551</v>
       </c>
       <c r="C20">
-        <v>0.391677504662141</v>
+        <v>0.6479965444679578</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1047627048073352</v>
+        <v>0.03511986692209312</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2703040998918809</v>
+        <v>0.1332147402233517</v>
       </c>
       <c r="H20">
-        <v>0.4530960695821307</v>
+        <v>0.1276344274254129</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2488882164510358</v>
+        <v>0.4709770066224337</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.368779938943234</v>
+        <v>0.5011381156958237</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.018306660957478</v>
+        <v>5.697248000246816</v>
       </c>
       <c r="C21">
-        <v>0.4101686214441429</v>
+        <v>0.7064492352128298</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.103073010389032</v>
+        <v>0.03482481982720564</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2645630806586325</v>
+        <v>0.142771004522146</v>
       </c>
       <c r="H21">
-        <v>0.4451937728944486</v>
+        <v>0.1232101960558367</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2647712668891558</v>
+        <v>0.5302625860306449</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.340369284396928</v>
+        <v>0.5126194671502162</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.149692374691369</v>
+        <v>6.116891542699193</v>
       </c>
       <c r="C22">
-        <v>0.4222966396738457</v>
+        <v>0.7449445339206306</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1020412614511397</v>
+        <v>0.03481141823024281</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.2611683164326735</v>
+        <v>0.1504490434895445</v>
       </c>
       <c r="H22">
-        <v>0.4403238034972361</v>
+        <v>0.1211087050006157</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2752207830668993</v>
+        <v>0.5694298174703363</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.323167893303079</v>
+        <v>0.5248065566884748</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.079594434594526</v>
+        <v>5.892755737645814</v>
       </c>
       <c r="C23">
-        <v>0.4158198743010928</v>
+        <v>0.7243702385774213</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1025852803375198</v>
+        <v>0.03480148472168132</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.2629473405389788</v>
+        <v>0.1462127345453652</v>
       </c>
       <c r="H23">
-        <v>0.4428960036351199</v>
+        <v>0.122154751079286</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2696374088361182</v>
+        <v>0.5484840089571037</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.33222320349438</v>
+        <v>0.5178511598778499</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.813573388645409</v>
+        <v>5.047158479392237</v>
       </c>
       <c r="C24">
-        <v>0.3913760301095692</v>
+        <v>0.6470457221585377</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1047915458263784</v>
+        <v>0.03512757328041616</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2704039370964892</v>
+        <v>0.1330811441127722</v>
       </c>
       <c r="H24">
-        <v>0.4532301948680555</v>
+        <v>0.1277193666959207</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2486297915496323</v>
+        <v>0.4700144613229753</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.369267289230834</v>
+        <v>0.5010246727537435</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.525576640175245</v>
+        <v>4.140118969169407</v>
       </c>
       <c r="C25">
-        <v>0.365206285594752</v>
+        <v>0.5647263638173001</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1074823655706556</v>
+        <v>0.03618595489159659</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2799679931007475</v>
+        <v>0.1243718997125143</v>
       </c>
       <c r="H25">
-        <v>0.4656387851305581</v>
+        <v>0.1368029716481942</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2262704932107624</v>
+        <v>0.3868919282025587</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.415057202656271</v>
+        <v>0.5008581949040263</v>
       </c>
     </row>
   </sheetData>
